--- a/Pokemon_Server/data/pkm_conquest_pokemon_evolution.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_pokemon_evolution.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="10">
   <si>
     <t>recruiting_ko_required</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>evolved_species_id</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -436,8 +442,8 @@
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -450,8 +456,8 @@
       <c r="C3">
         <v>83</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -464,8 +470,8 @@
       <c r="C4">
         <v>59</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -475,8 +481,8 @@
       <c r="D5">
         <v>50</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -486,8 +492,8 @@
       <c r="G6">
         <v>83</v>
       </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -497,8 +503,8 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="H7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,8 +514,8 @@
       <c r="G8">
         <v>81</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,8 +528,8 @@
       <c r="C9">
         <v>55</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -536,8 +542,8 @@
       <c r="C10">
         <v>96</v>
       </c>
-      <c r="H10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,8 +556,8 @@
       <c r="C11">
         <v>83</v>
       </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,8 +567,8 @@
       <c r="D12">
         <v>55</v>
       </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,8 +581,8 @@
       <c r="C13">
         <v>86</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,8 +592,8 @@
       <c r="D14">
         <v>60</v>
       </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -600,8 +606,8 @@
       <c r="C15">
         <v>99</v>
       </c>
-      <c r="H15">
-        <v>0</v>
+      <c r="H15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,8 +617,8 @@
       <c r="D16">
         <v>60</v>
       </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,8 +631,8 @@
       <c r="C17">
         <v>108</v>
       </c>
-      <c r="H17">
-        <v>0</v>
+      <c r="H17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,8 +645,8 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="H18">
-        <v>0</v>
+      <c r="H18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -650,8 +656,8 @@
       <c r="G19">
         <v>84</v>
       </c>
-      <c r="H19">
-        <v>0</v>
+      <c r="H19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -661,8 +667,8 @@
       <c r="G20">
         <v>83</v>
       </c>
-      <c r="H20">
-        <v>0</v>
+      <c r="H20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,8 +678,8 @@
       <c r="G21">
         <v>82</v>
       </c>
-      <c r="H21">
-        <v>0</v>
+      <c r="H21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,8 +689,8 @@
       <c r="D22">
         <v>50</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -697,8 +703,8 @@
       <c r="C23">
         <v>60</v>
       </c>
-      <c r="H23">
-        <v>0</v>
+      <c r="H23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -711,8 +717,8 @@
       <c r="C24">
         <v>132</v>
       </c>
-      <c r="H24">
-        <v>0</v>
+      <c r="H24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,8 +728,8 @@
       <c r="D25">
         <v>65</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,8 +742,8 @@
       <c r="C26">
         <v>53</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,8 +756,8 @@
       <c r="C27">
         <v>90</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,8 +770,8 @@
       <c r="C28">
         <v>94</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,8 +784,8 @@
       <c r="E29">
         <v>11</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,8 +798,8 @@
       <c r="E30">
         <v>16</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -806,8 +812,8 @@
       <c r="C31">
         <v>73</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,8 +823,8 @@
       <c r="G32">
         <v>210</v>
       </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="H32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,8 +834,8 @@
       <c r="G33">
         <v>210</v>
       </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="H33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,8 +848,8 @@
       <c r="C34">
         <v>74</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,8 +862,8 @@
       <c r="C35">
         <v>132</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,8 +876,8 @@
       <c r="C36">
         <v>58</v>
       </c>
-      <c r="H36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,8 +890,8 @@
       <c r="C37">
         <v>118</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,8 +904,8 @@
       <c r="C38">
         <v>44</v>
       </c>
-      <c r="H38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,8 +918,8 @@
       <c r="C39">
         <v>75</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,8 +932,8 @@
       <c r="C40">
         <v>83</v>
       </c>
-      <c r="H40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,8 +946,8 @@
       <c r="C41">
         <v>130</v>
       </c>
-      <c r="H41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,8 +960,8 @@
       <c r="C42">
         <v>116</v>
       </c>
-      <c r="H42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,8 +974,8 @@
       <c r="C43">
         <v>104</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,8 +985,8 @@
       <c r="D44">
         <v>50</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,8 +999,8 @@
       <c r="C45">
         <v>128</v>
       </c>
-      <c r="H45">
-        <v>0</v>
+      <c r="H45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,8 +1013,8 @@
       <c r="C46">
         <v>138</v>
       </c>
-      <c r="H46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1021,8 +1027,8 @@
       <c r="C47">
         <v>195</v>
       </c>
-      <c r="H47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,8 +1041,8 @@
       <c r="C48">
         <v>64</v>
       </c>
-      <c r="H48">
-        <v>0</v>
+      <c r="H48" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1049,8 +1055,8 @@
       <c r="C49">
         <v>111</v>
       </c>
-      <c r="H49">
-        <v>0</v>
+      <c r="H49" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,8 +1069,8 @@
       <c r="C50">
         <v>48</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,8 +1083,8 @@
       <c r="C51">
         <v>102</v>
       </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1091,8 +1097,8 @@
       <c r="C52">
         <v>51</v>
       </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,8 +1111,8 @@
       <c r="C53">
         <v>102</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,8 +1125,8 @@
       <c r="C54">
         <v>48</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1133,8 +1139,8 @@
       <c r="C55">
         <v>92</v>
       </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,8 +1153,8 @@
       <c r="C56">
         <v>39</v>
       </c>
-      <c r="H56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,8 +1167,8 @@
       <c r="C57">
         <v>35</v>
       </c>
-      <c r="H57">
-        <v>0</v>
+      <c r="H57" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,8 +1181,8 @@
       <c r="C58">
         <v>95</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,8 +1195,8 @@
       <c r="C59">
         <v>113</v>
       </c>
-      <c r="H59">
-        <v>0</v>
+      <c r="H59" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,8 +1209,8 @@
       <c r="C60">
         <v>146</v>
       </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="H60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,8 +1220,8 @@
       <c r="G61">
         <v>108</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,8 +1234,8 @@
       <c r="C62">
         <v>44</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1242,8 +1248,8 @@
       <c r="C63">
         <v>136</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,8 +1259,8 @@
       <c r="D64">
         <v>50</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -1267,8 +1273,8 @@
       <c r="C65">
         <v>90</v>
       </c>
-      <c r="H65">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,8 +1287,8 @@
       <c r="C66">
         <v>81</v>
       </c>
-      <c r="H66">
-        <v>0</v>
+      <c r="H66" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,8 +1304,8 @@
       <c r="G67">
         <v>303</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,8 +1315,8 @@
       <c r="G68">
         <v>298</v>
       </c>
-      <c r="H68">
-        <v>1</v>
+      <c r="H68" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,8 +1332,8 @@
       <c r="E69">
         <v>5</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,8 +1349,8 @@
       <c r="E70">
         <v>6</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -1357,8 +1363,8 @@
       <c r="G71">
         <v>109</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,8 +1374,8 @@
       <c r="G72">
         <v>302</v>
       </c>
-      <c r="H72">
-        <v>1</v>
+      <c r="H72" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -1382,8 +1388,8 @@
       <c r="G73">
         <v>109</v>
       </c>
-      <c r="H73">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,8 +1402,8 @@
       <c r="C74">
         <v>54</v>
       </c>
-      <c r="H74">
-        <v>0</v>
+      <c r="H74" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,8 +1416,8 @@
       <c r="C75">
         <v>104</v>
       </c>
-      <c r="H75">
-        <v>0</v>
+      <c r="H75" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,8 +1430,8 @@
       <c r="C76">
         <v>41</v>
       </c>
-      <c r="H76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,8 +1444,8 @@
       <c r="C77">
         <v>115</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,8 +1458,8 @@
       <c r="C78">
         <v>54</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,8 +1472,8 @@
       <c r="C79">
         <v>104</v>
       </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="H79" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,8 +1483,8 @@
       <c r="G80">
         <v>85</v>
       </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -1488,8 +1494,8 @@
       <c r="G81">
         <v>82</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,8 +1505,8 @@
       <c r="G82">
         <v>84</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,8 +1516,8 @@
       <c r="G83">
         <v>81</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -1524,8 +1530,8 @@
       <c r="C84">
         <v>81</v>
       </c>
-      <c r="H84">
-        <v>0</v>
+      <c r="H84" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,8 +1544,8 @@
       <c r="C85">
         <v>59</v>
       </c>
-      <c r="H85">
-        <v>0</v>
+      <c r="H85" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,8 +1555,8 @@
       <c r="D86">
         <v>60</v>
       </c>
-      <c r="H86">
-        <v>1</v>
+      <c r="H86" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,8 +1569,8 @@
       <c r="C87">
         <v>97</v>
       </c>
-      <c r="H87">
-        <v>0</v>
+      <c r="H87" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,8 +1583,8 @@
       <c r="C88">
         <v>81</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -1588,8 +1594,8 @@
       <c r="D89">
         <v>60</v>
       </c>
-      <c r="H89">
-        <v>1</v>
+      <c r="H89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,8 +1608,8 @@
       <c r="C90">
         <v>60</v>
       </c>
-      <c r="H90">
-        <v>0</v>
+      <c r="H90" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,8 +1619,8 @@
       <c r="D91">
         <v>65</v>
       </c>
-      <c r="H91">
-        <v>0</v>
+      <c r="H91" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,8 +1633,8 @@
       <c r="C92">
         <v>50</v>
       </c>
-      <c r="H92">
-        <v>0</v>
+      <c r="H92" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,8 +1647,8 @@
       <c r="C93">
         <v>57</v>
       </c>
-      <c r="H93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -1652,8 +1658,8 @@
       <c r="G94">
         <v>80</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,8 +1669,8 @@
       <c r="G95">
         <v>80</v>
       </c>
-      <c r="H95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,8 +1683,8 @@
       <c r="C96">
         <v>80</v>
       </c>
-      <c r="H96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -1691,8 +1697,8 @@
       <c r="C97">
         <v>110</v>
       </c>
-      <c r="H97">
-        <v>0</v>
+      <c r="H97" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,8 +1711,8 @@
       <c r="C98">
         <v>110</v>
       </c>
-      <c r="H98">
-        <v>0</v>
+      <c r="H98" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,8 +1725,8 @@
       <c r="C99">
         <v>86</v>
       </c>
-      <c r="H99">
-        <v>0</v>
+      <c r="H99" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,8 +1739,8 @@
       <c r="C100">
         <v>90</v>
       </c>
-      <c r="H100">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -1744,8 +1750,8 @@
       <c r="G101">
         <v>107</v>
       </c>
-      <c r="H101">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,8 +1764,8 @@
       <c r="C102">
         <v>70</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -1772,8 +1778,8 @@
       <c r="C103">
         <v>106</v>
       </c>
-      <c r="H103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -1786,8 +1792,8 @@
       <c r="C104">
         <v>84</v>
       </c>
-      <c r="H104">
-        <v>0</v>
+      <c r="H104" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -1800,8 +1806,8 @@
       <c r="C105">
         <v>84</v>
       </c>
-      <c r="H105">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,8 +1817,8 @@
       <c r="G106">
         <v>108</v>
       </c>
-      <c r="H106">
-        <v>0</v>
+      <c r="H106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -1825,8 +1831,8 @@
       <c r="C107">
         <v>113</v>
       </c>
-      <c r="H107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,8 +1845,8 @@
       <c r="C108">
         <v>173</v>
       </c>
-      <c r="H108">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,8 +1859,8 @@
       <c r="C109">
         <v>73</v>
       </c>
-      <c r="H109">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -1867,8 +1873,8 @@
       <c r="C110">
         <v>118</v>
       </c>
-      <c r="H110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,8 +1887,8 @@
       <c r="C111">
         <v>119</v>
       </c>
-      <c r="H111">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,8 +1901,8 @@
       <c r="C112">
         <v>72</v>
       </c>
-      <c r="H112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,8 +1915,8 @@
       <c r="C113">
         <v>143</v>
       </c>
-      <c r="H113">
-        <v>0</v>
+      <c r="H113" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,8 +1929,8 @@
       <c r="C114">
         <v>131</v>
       </c>
-      <c r="H114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
